--- a/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Calr-Tshr.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,52 +531,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H2">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J2">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.200217989688372</v>
+        <v>0.22859</v>
       </c>
       <c r="N2">
-        <v>0.200217989688372</v>
+        <v>0.68577</v>
       </c>
       <c r="O2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P2">
-        <v>0.0734120546528184</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q2">
-        <v>17.24359890220448</v>
+        <v>21.33333197335333</v>
       </c>
       <c r="R2">
-        <v>17.24359890220448</v>
+        <v>191.99998776018</v>
       </c>
       <c r="S2">
-        <v>0.01658759564187677</v>
+        <v>0.01566801733960173</v>
       </c>
       <c r="T2">
-        <v>0.01658759564187677</v>
+        <v>0.01566801733960173</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,52 +593,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H3">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J3">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.10094435494406</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N3">
-        <v>2.10094435494406</v>
+        <v>6.542951</v>
       </c>
       <c r="O3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P3">
-        <v>0.7703335851475741</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q3">
-        <v>180.9419914209142</v>
+        <v>203.5419247975038</v>
       </c>
       <c r="R3">
-        <v>180.9419914209142</v>
+        <v>1831.877323177534</v>
       </c>
       <c r="S3">
-        <v>0.1740583624884914</v>
+        <v>0.1494889973608709</v>
       </c>
       <c r="T3">
-        <v>0.1740583624884914</v>
+        <v>0.149488997360871</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,60 +652,60 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>86.1241236566363</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H4">
-        <v>86.1241236566363</v>
+        <v>279.977234</v>
       </c>
       <c r="I4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J4">
-        <v>0.2259519328306927</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.426155268738376</v>
+        <v>0.173517</v>
       </c>
       <c r="N4">
-        <v>0.426155268738376</v>
+        <v>0.520551</v>
       </c>
       <c r="O4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P4">
-        <v>0.1562543601996075</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q4">
-        <v>36.70224906175097</v>
+        <v>16.193603237326</v>
       </c>
       <c r="R4">
-        <v>36.70224906175097</v>
+        <v>145.742429135934</v>
       </c>
       <c r="S4">
-        <v>0.03530597470032457</v>
+        <v>0.011893203397855</v>
       </c>
       <c r="T4">
-        <v>0.03530597470032457</v>
+        <v>0.011893203397855</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,55 +714,55 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>164.180771392012</v>
+        <v>93.32574466666667</v>
       </c>
       <c r="H5">
-        <v>164.180771392012</v>
+        <v>279.977234</v>
       </c>
       <c r="I5">
-        <v>0.4307383466397768</v>
+        <v>0.2327963689879921</v>
       </c>
       <c r="J5">
-        <v>0.4307383466397768</v>
+        <v>0.2327963689879922</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.200217989688372</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N5">
-        <v>0.200217989688372</v>
+        <v>2.439941</v>
       </c>
       <c r="O5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P5">
-        <v>0.0734120546528184</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q5">
-        <v>32.87194399359482</v>
+        <v>75.90310358924378</v>
       </c>
       <c r="R5">
-        <v>32.87194399359482</v>
+        <v>683.127932303194</v>
       </c>
       <c r="S5">
-        <v>0.03162138704458393</v>
+        <v>0.05574615088966444</v>
       </c>
       <c r="T5">
-        <v>0.03162138704458393</v>
+        <v>0.05574615088966445</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,55 +776,55 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H6">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J6">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.10094435494406</v>
+        <v>0.22859</v>
       </c>
       <c r="N6">
-        <v>2.10094435494406</v>
+        <v>0.68577</v>
       </c>
       <c r="O6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P6">
-        <v>0.7703335851475741</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q6">
-        <v>344.9346648464089</v>
+        <v>37.66929222895667</v>
       </c>
       <c r="R6">
-        <v>344.9346648464089</v>
+        <v>339.02363006061</v>
       </c>
       <c r="S6">
-        <v>0.3318122148275578</v>
+        <v>0.02766577319243982</v>
       </c>
       <c r="T6">
-        <v>0.3318122148275578</v>
+        <v>0.02766577319243982</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,60 +838,60 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>164.180771392012</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H7">
-        <v>164.180771392012</v>
+        <v>494.369293</v>
       </c>
       <c r="I7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J7">
-        <v>0.4307383466397768</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.426155268738376</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N7">
-        <v>0.426155268738376</v>
+        <v>6.542951</v>
       </c>
       <c r="O7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P7">
-        <v>0.1562543601996075</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q7">
-        <v>69.96650075423675</v>
+        <v>359.4037844448492</v>
       </c>
       <c r="R7">
-        <v>69.96650075423675</v>
+        <v>3234.634060003643</v>
       </c>
       <c r="S7">
-        <v>0.06730474476763507</v>
+        <v>0.2639599258865907</v>
       </c>
       <c r="T7">
-        <v>0.06730474476763507</v>
+        <v>0.2639599258865907</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,60 +900,60 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>87.9703867403058</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H8">
-        <v>87.9703867403058</v>
+        <v>494.369293</v>
       </c>
       <c r="I8">
-        <v>0.2307957175283723</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J8">
-        <v>0.2307957175283723</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.200217989688372</v>
+        <v>0.173517</v>
       </c>
       <c r="N8">
-        <v>0.200217989688372</v>
+        <v>0.520551</v>
       </c>
       <c r="O8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P8">
-        <v>0.0734120546528184</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q8">
-        <v>17.61325398525264</v>
+        <v>28.593825537827</v>
       </c>
       <c r="R8">
-        <v>17.61325398525264</v>
+        <v>257.344429840443</v>
       </c>
       <c r="S8">
-        <v>0.01694318782882931</v>
+        <v>0.02100040232307878</v>
       </c>
       <c r="T8">
-        <v>0.01694318782882931</v>
+        <v>0.02100040232307878</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,55 +962,55 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>87.9703867403058</v>
+        <v>164.7897643333334</v>
       </c>
       <c r="H9">
-        <v>87.9703867403058</v>
+        <v>494.369293</v>
       </c>
       <c r="I9">
-        <v>0.2307957175283723</v>
+        <v>0.4110597662007076</v>
       </c>
       <c r="J9">
-        <v>0.2307957175283723</v>
+        <v>0.4110597662007077</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.10094435494406</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N9">
-        <v>2.10094435494406</v>
+        <v>2.439941</v>
       </c>
       <c r="O9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P9">
-        <v>0.7703335851475741</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q9">
-        <v>184.8208874242913</v>
+        <v>134.0257674590792</v>
       </c>
       <c r="R9">
-        <v>184.8208874242913</v>
+        <v>1206.231907131713</v>
       </c>
       <c r="S9">
-        <v>0.1777896925203379</v>
+        <v>0.09843366479859836</v>
       </c>
       <c r="T9">
-        <v>0.1777896925203379</v>
+        <v>0.09843366479859837</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,60 +1024,60 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>87.9703867403058</v>
+        <v>95.835818</v>
       </c>
       <c r="H10">
-        <v>87.9703867403058</v>
+        <v>287.507454</v>
       </c>
       <c r="I10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J10">
-        <v>0.2307957175283723</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.426155268738376</v>
+        <v>0.22859</v>
       </c>
       <c r="N10">
-        <v>0.426155268738376</v>
+        <v>0.68577</v>
       </c>
       <c r="O10">
-        <v>0.1562543601996075</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="P10">
-        <v>0.1562543601996075</v>
+        <v>0.06730352972305123</v>
       </c>
       <c r="Q10">
-        <v>37.48904380233389</v>
+        <v>21.90710963662</v>
       </c>
       <c r="R10">
-        <v>37.48904380233389</v>
+        <v>197.16398672958</v>
       </c>
       <c r="S10">
-        <v>0.03606283717920514</v>
+        <v>0.01608942166539422</v>
       </c>
       <c r="T10">
-        <v>0.03606283717920514</v>
+        <v>0.01608942166539422</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1086,60 +1086,60 @@
         <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>42.8859792708027</v>
+        <v>95.835818</v>
       </c>
       <c r="H11">
-        <v>42.8859792708027</v>
+        <v>287.507454</v>
       </c>
       <c r="I11">
-        <v>0.1125140030011581</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J11">
-        <v>0.1125140030011581</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.200217989688372</v>
+        <v>2.180983666666667</v>
       </c>
       <c r="N11">
-        <v>0.200217989688372</v>
+        <v>6.542951</v>
       </c>
       <c r="O11">
-        <v>0.0734120546528184</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="P11">
-        <v>0.0734120546528184</v>
+        <v>0.6421448840062525</v>
       </c>
       <c r="Q11">
-        <v>8.58654455541731</v>
+        <v>209.0163537396393</v>
       </c>
       <c r="R11">
-        <v>8.58654455541731</v>
+        <v>1881.147183656754</v>
       </c>
       <c r="S11">
-        <v>0.008259884137528395</v>
+        <v>0.1535096279729541</v>
       </c>
       <c r="T11">
-        <v>0.008259884137528395</v>
+        <v>0.1535096279729542</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,60 +1148,60 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>42.8859792708027</v>
+        <v>95.835818</v>
       </c>
       <c r="H12">
-        <v>42.8859792708027</v>
+        <v>287.507454</v>
       </c>
       <c r="I12">
-        <v>0.1125140030011581</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J12">
-        <v>0.1125140030011581</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>2.10094435494406</v>
+        <v>0.173517</v>
       </c>
       <c r="N12">
-        <v>2.10094435494406</v>
+        <v>0.520551</v>
       </c>
       <c r="O12">
-        <v>0.7703335851475741</v>
+        <v>0.05108844029465279</v>
       </c>
       <c r="P12">
-        <v>0.7703335851475741</v>
+        <v>0.05108844029465278</v>
       </c>
       <c r="Q12">
-        <v>90.1010560552409</v>
+        <v>16.629143631906</v>
       </c>
       <c r="R12">
-        <v>90.1010560552409</v>
+        <v>149.662292687154</v>
       </c>
       <c r="S12">
-        <v>0.08667331531118706</v>
+        <v>0.01221308097079579</v>
       </c>
       <c r="T12">
-        <v>0.08667331531118706</v>
+        <v>0.01221308097079579</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1213,52 +1213,300 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>42.8859792708027</v>
+        <v>95.835818</v>
       </c>
       <c r="H13">
-        <v>42.8859792708027</v>
+        <v>287.507454</v>
       </c>
       <c r="I13">
-        <v>0.1125140030011581</v>
+        <v>0.2390576204784642</v>
       </c>
       <c r="J13">
-        <v>0.1125140030011581</v>
+        <v>0.2390576204784643</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.426155268738376</v>
+        <v>0.8133136666666667</v>
       </c>
       <c r="N13">
-        <v>0.426155268738376</v>
+        <v>2.439941</v>
       </c>
       <c r="O13">
-        <v>0.1562543601996075</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="P13">
-        <v>0.1562543601996075</v>
+        <v>0.2394631459760435</v>
       </c>
       <c r="Q13">
-        <v>18.27608602125735</v>
+        <v>77.94458053557933</v>
       </c>
       <c r="R13">
-        <v>18.27608602125735</v>
+        <v>701.501224820214</v>
       </c>
       <c r="S13">
-        <v>0.01758080355244268</v>
+        <v>0.05724548986932009</v>
       </c>
       <c r="T13">
-        <v>0.01758080355244268</v>
+        <v>0.05724548986932009</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>46.93870866666666</v>
+      </c>
+      <c r="H14">
+        <v>140.816126</v>
+      </c>
+      <c r="I14">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="J14">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>0.22859</v>
+      </c>
+      <c r="N14">
+        <v>0.68577</v>
+      </c>
+      <c r="O14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="P14">
+        <v>0.06730352972305123</v>
+      </c>
+      <c r="Q14">
+        <v>10.72971941411333</v>
+      </c>
+      <c r="R14">
+        <v>96.56747472702</v>
+      </c>
+      <c r="S14">
+        <v>0.007880317525615464</v>
+      </c>
+      <c r="T14">
+        <v>0.007880317525615466</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>46.93870866666666</v>
+      </c>
+      <c r="H15">
+        <v>140.816126</v>
+      </c>
+      <c r="I15">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="J15">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.180983666666667</v>
+      </c>
+      <c r="N15">
+        <v>6.542951</v>
+      </c>
+      <c r="O15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="P15">
+        <v>0.6421448840062525</v>
+      </c>
+      <c r="Q15">
+        <v>102.3725569364251</v>
+      </c>
+      <c r="R15">
+        <v>921.353012427826</v>
+      </c>
+      <c r="S15">
+        <v>0.07518633278583668</v>
+      </c>
+      <c r="T15">
+        <v>0.0751863327858367</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>46.93870866666666</v>
+      </c>
+      <c r="H16">
+        <v>140.816126</v>
+      </c>
+      <c r="I16">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="J16">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.173517</v>
+      </c>
+      <c r="N16">
+        <v>0.520551</v>
+      </c>
+      <c r="O16">
+        <v>0.05108844029465279</v>
+      </c>
+      <c r="P16">
+        <v>0.05108844029465278</v>
+      </c>
+      <c r="Q16">
+        <v>8.144663911714</v>
+      </c>
+      <c r="R16">
+        <v>73.30197520542599</v>
+      </c>
+      <c r="S16">
+        <v>0.005981753602923219</v>
+      </c>
+      <c r="T16">
+        <v>0.005981753602923219</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>46.93870866666666</v>
+      </c>
+      <c r="H17">
+        <v>140.816126</v>
+      </c>
+      <c r="I17">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="J17">
+        <v>0.117086244332836</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.8133136666666667</v>
+      </c>
+      <c r="N17">
+        <v>2.439941</v>
+      </c>
+      <c r="O17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="P17">
+        <v>0.2394631459760435</v>
+      </c>
+      <c r="Q17">
+        <v>38.17589325428511</v>
+      </c>
+      <c r="R17">
+        <v>343.583039288566</v>
+      </c>
+      <c r="S17">
+        <v>0.02803784041846059</v>
+      </c>
+      <c r="T17">
+        <v>0.0280378404184606</v>
       </c>
     </row>
   </sheetData>
